--- a/config_4.6/fish_3d_yutu_random_2.xlsx
+++ b/config_4.6/fish_3d_yutu_random_2.xlsx
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J18" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J19" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J20" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J21" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J22" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_4.6/fish_3d_yutu_random_2.xlsx
+++ b/config_4.6/fish_3d_yutu_random_2.xlsx
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1700,10 +1700,10 @@
         <v>79</v>
       </c>
       <c r="D22" s="26">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="26">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>47</v>
